--- a/finance/基金/实践/追踪的基金.xlsx
+++ b/finance/基金/实践/追踪的基金.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="7605"/>
+    <workbookView windowWidth="21000" windowHeight="9705"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>追踪的指数</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>中小板</t>
+  </si>
+  <si>
+    <t>红利</t>
   </si>
   <si>
     <t>行业指数</t>
@@ -113,12 +116,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,50 +145,69 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,43 +221,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -247,39 +274,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,97 +290,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,60 +458,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -463,18 +471,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,6 +481,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -503,15 +508,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -523,6 +519,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,30 +564,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -585,153 +572,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1093,10 +1089,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:D23"/>
+  <dimension ref="A3:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1165,18 +1161,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1190,46 +1186,51 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="1" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+    <row r="20" spans="2:2">
+      <c r="B20" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B23" t="s">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="C23" t="s">
+      <c r="B24" t="s">
         <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/finance/基金/实践/追踪的基金.xlsx
+++ b/finance/基金/实践/追踪的基金.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>追踪的指数</t>
   </si>
@@ -69,25 +69,13 @@
     <t>国泰国证食品饮料行业指数分级</t>
   </si>
   <si>
-    <t>易方达消费行业</t>
-  </si>
-  <si>
-    <t>国泰国证医药卫生指数分级</t>
-  </si>
-  <si>
-    <t>易方达医疗保健行业混合</t>
-  </si>
-  <si>
-    <t>国泰国证房地产行业指数分级</t>
+    <t>汇添富中证主要消费ETF链接</t>
   </si>
   <si>
     <t>混合型</t>
   </si>
   <si>
     <t>景顺长城新兴成长混合</t>
-  </si>
-  <si>
-    <t>汇添富成长焦点混合</t>
   </si>
   <si>
     <t>华安策略优选混合</t>
@@ -116,9 +104,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -137,6 +125,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -145,53 +141,57 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -199,7 +199,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,40 +221,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -267,15 +246,24 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,13 +278,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,31 +422,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,133 +458,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,11 +472,74 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,60 +559,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -572,15 +569,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -589,10 +577,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -601,133 +589,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1092,7 +1080,7 @@
   <dimension ref="A3:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1172,65 +1160,48 @@
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="B19" s="2"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="1" t="s">
-        <v>24</v>
+      <c r="B20" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
